--- a/Table/OptionTable.xlsx
+++ b/Table/OptionTable.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-054\Documents\GitHub\The_Metro\Table\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="105" windowWidth="20475" windowHeight="8070"/>
   </bookViews>
@@ -41,7 +46,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -148,7 +153,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -183,7 +188,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -395,7 +400,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -424,7 +429,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Table/OptionTable.xlsx
+++ b/Table/OptionTable.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>ID-string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,6 +40,54 @@
   </si>
   <si>
     <t>씬 변경이 준비되었을때 대기할지 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템 사운드 볼륨 옵션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템 사운드 뮤트 옵션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 내 사운드 볼륨 옵션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 내 사운드 뮤트 옵션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BGM 사운드 볼륨 옵션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sound_Mute_Effect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BGM 사운드 뮤트 옵션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sound_Vol_BGM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sound_Mute_BGM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sound_Vol_System</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sound_Mute_System</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sound_Vol_Effect</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -397,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -432,9 +480,76 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
